--- a/Assigments/Assignment3/Assignment3.xlsx
+++ b/Assigments/Assignment3/Assignment3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amritanischal/Documents/Spring2024SemTwo/PSA/GitAssignments/INFO6205/Assigments/Assignment3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BD2C2C-91DF-6545-8E8D-125E13543375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9A5F6B-8F8A-2D49-9AC8-763B4B8ED653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{BA7F064A-2627-1A43-81BF-6F2E204689FA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
   <si>
     <t>Array size</t>
   </si>
@@ -74,12 +74,21 @@
   <si>
     <t>Slope</t>
   </si>
+  <si>
+    <t>Slope is approximately 2
+When we double the size of array, the time taken increases approximately by a factor of 4.
+The order of growth is quadratic</t>
+  </si>
+  <si>
+    <t>The time for sorting the array increases slightly when the size of array increases.
+The order of growth is linear</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -98,6 +107,13 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -139,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -149,6 +165,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1830,10 +1852,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE678B1D-345C-7144-B2C4-027B12071012}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1842,7 +1864,7 @@
     <col min="2" max="2" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -1851,7 +1873,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1867,8 +1889,18 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2000</v>
       </c>
@@ -1887,8 +1919,16 @@
         <f>(D4-D3)/(C4-C3)</f>
         <v>1.9638732120442843</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>4000</v>
       </c>
@@ -1907,8 +1947,16 @@
         <f t="shared" ref="E4:E6" si="1">(D5-D4)/(C5-C4)</f>
         <v>2.0425521349002391</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>8000</v>
       </c>
@@ -1927,8 +1975,16 @@
         <f t="shared" si="1"/>
         <v>2.0509662279130563</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>16000</v>
       </c>
@@ -1948,7 +2004,7 @@
         <v>1.9960623787088325</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>32000</v>
       </c>
@@ -1965,7 +2021,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
@@ -1974,7 +2030,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -1990,8 +2046,18 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>2000</v>
       </c>
@@ -2010,8 +2076,16 @@
         <f>(D16-D15)/(C16-C15)</f>
         <v>1.9341298021461153</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>4000</v>
       </c>
@@ -2030,8 +2104,16 @@
         <f t="shared" ref="E16:E18" si="4">(D17-D16)/(C17-C16)</f>
         <v>1.9831031163788984</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8000</v>
       </c>
@@ -2050,8 +2132,16 @@
         <f t="shared" si="4"/>
         <v>2.0209584855884577</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>16000</v>
       </c>
@@ -2071,7 +2161,7 @@
         <v>2.0043795013593044</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>32000</v>
       </c>
@@ -2088,7 +2178,7 @@
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="25" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -2097,7 +2187,7 @@
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>7</v>
       </c>
@@ -2113,8 +2203,18 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>2000</v>
       </c>
@@ -2133,8 +2233,16 @@
         <f>(D28-D27)/(C28-C27)</f>
         <v>0.57321168473479567</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>4000</v>
       </c>
@@ -2153,8 +2261,16 @@
         <f t="shared" ref="E28:E30" si="7">(D29-D28)/(C29-C28)</f>
         <v>0.94576129184468805</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>8000</v>
       </c>
@@ -2173,8 +2289,16 @@
         <f t="shared" si="7"/>
         <v>1.5860720083261066</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>16000</v>
       </c>
@@ -2194,7 +2318,7 @@
         <v>8.8307574825456925E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>32000</v>
       </c>
@@ -2211,7 +2335,7 @@
       </c>
       <c r="E31" s="3"/>
     </row>
-    <row r="37" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>3</v>
       </c>
@@ -2220,7 +2344,7 @@
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>7</v>
       </c>
@@ -2236,8 +2360,18 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>2000</v>
       </c>
@@ -2256,8 +2390,16 @@
         <f>(D40-D39)/(C40-C39)</f>
         <v>1.7725927393047676</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>4000</v>
       </c>
@@ -2276,8 +2418,16 @@
         <f t="shared" ref="E40:E42" si="10">(D41-D40)/(C41-C40)</f>
         <v>2.0499505429333111</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>8000</v>
       </c>
@@ -2296,8 +2446,16 @@
         <f t="shared" si="10"/>
         <v>1.8910035824457747</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>16000</v>
       </c>
@@ -2317,7 +2475,7 @@
         <v>2.0295896112642593</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>32000</v>
       </c>
@@ -2335,11 +2493,15 @@
       <c r="E43" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="G38:N41"/>
     <mergeCell ref="A37:E37"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G2:N5"/>
+    <mergeCell ref="G14:N17"/>
+    <mergeCell ref="G26:N29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assigments/Assignment3/Assignment3.xlsx
+++ b/Assigments/Assignment3/Assignment3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amritanischal/Documents/Spring2024SemTwo/PSA/GitAssignments/INFO6205/Assigments/Assignment3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9A5F6B-8F8A-2D49-9AC8-763B4B8ED653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6418979C-3F7B-E743-BFAC-5B9C7217E302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{BA7F064A-2627-1A43-81BF-6F2E204689FA}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20100" xr2:uid="{BA7F064A-2627-1A43-81BF-6F2E204689FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Array size vs Time of Execution" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>Array size</t>
   </si>
@@ -82,6 +82,10 @@
   <si>
     <t>The time for sorting the array increases slightly when the size of array increases.
 The order of growth is linear</t>
+  </si>
+  <si>
+    <t>The time taken for sorting different arrays in ascending order is
+Ordered Array &gt; Partially Ordered Array &gt; Randomly Ordered Array &gt; Reverse Ordered Array</t>
   </si>
 </sst>
 </file>
@@ -128,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -151,11 +155,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -163,13 +247,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1714,10 +1825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB208AB-CA39-BC42-A408-18AEBD38CC27}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1728,7 +1839,7 @@
     <col min="5" max="5" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1739,7 +1850,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1755,8 +1866,16 @@
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2000</v>
       </c>
@@ -1772,8 +1891,14 @@
       <c r="E3" s="3">
         <v>1.0950666999999901</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="13"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>4000</v>
       </c>
@@ -1789,8 +1914,14 @@
       <c r="E4" s="3">
         <v>4.2719417000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="13"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>8000</v>
       </c>
@@ -1806,8 +1937,14 @@
       <c r="E5" s="3">
         <v>17.599274999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="13"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>16000</v>
       </c>
@@ -1823,8 +1960,14 @@
       <c r="E6" s="3">
         <v>72.928474999999906</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>32000</v>
       </c>
@@ -1840,10 +1983,17 @@
       <c r="E7" s="3">
         <v>290.918795899999</v>
       </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G2:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1854,7 +2004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE678B1D-345C-7144-B2C4-027B12071012}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
@@ -1865,13 +2015,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1889,16 +2039,16 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -1919,14 +2069,14 @@
         <f>(D4-D3)/(C4-C3)</f>
         <v>1.9638732120442843</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
@@ -1947,14 +2097,14 @@
         <f t="shared" ref="E4:E6" si="1">(D5-D4)/(C5-C4)</f>
         <v>2.0425521349002391</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -1975,14 +2125,14 @@
         <f t="shared" si="1"/>
         <v>2.0509662279130563</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -2022,13 +2172,13 @@
       <c r="E7" s="3"/>
     </row>
     <row r="13" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -2046,16 +2196,16 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -2076,14 +2226,14 @@
         <f>(D16-D15)/(C16-C15)</f>
         <v>1.9341298021461153</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -2104,14 +2254,14 @@
         <f t="shared" ref="E16:E18" si="4">(D17-D16)/(C17-C16)</f>
         <v>1.9831031163788984</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
@@ -2132,14 +2282,14 @@
         <f t="shared" si="4"/>
         <v>2.0209584855884577</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -2179,13 +2329,13 @@
       <c r="E19" s="3"/>
     </row>
     <row r="25" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -2203,16 +2353,16 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
@@ -2233,14 +2383,14 @@
         <f>(D28-D27)/(C28-C27)</f>
         <v>0.57321168473479567</v>
       </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
@@ -2261,14 +2411,14 @@
         <f t="shared" ref="E28:E30" si="7">(D29-D28)/(C29-C28)</f>
         <v>0.94576129184468805</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
@@ -2289,14 +2439,14 @@
         <f t="shared" si="7"/>
         <v>1.5860720083261066</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
@@ -2336,13 +2486,13 @@
       <c r="E31" s="3"/>
     </row>
     <row r="37" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -2360,16 +2510,16 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
@@ -2390,14 +2540,14 @@
         <f>(D40-D39)/(C40-C39)</f>
         <v>1.7725927393047676</v>
       </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
@@ -2418,14 +2568,14 @@
         <f t="shared" ref="E40:E42" si="10">(D41-D40)/(C41-C40)</f>
         <v>2.0499505429333111</v>
       </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
@@ -2446,14 +2596,14 @@
         <f t="shared" si="10"/>
         <v>1.8910035824457747</v>
       </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
